--- a/timetable2017.xlsx
+++ b/timetable2017.xlsx
@@ -21,6 +21,12 @@
         <t xml:space="preserve">Raj if you find time please upgrade it.It's not at all urgent.as I am having  vacation up to 22nd June.
 	-Anil Patel
 kindly do the work if you have time
+	-Anil Patel
+Raj if you find time please upgrade it.
+	-Anil Patel
+Do not do it iwill tell u in night
+	-Anil Patel
+GOOD MORNING kindly do the work if you have time.
 	-Anil Patel</t>
       </text>
     </comment>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="277">
   <si>
     <t>S NO.</t>
   </si>
@@ -46,12 +52,15 @@
     <t>PRINCIPAL</t>
   </si>
   <si>
+    <t>5 XII-B
+6 CCA</t>
+  </si>
+  <si>
     <t>6 CCA</t>
   </si>
   <si>
-    <t>1 X-A
- 2 X-B
- 3 X-C</t>
+    <t>1 XI-C
+5 XI-B</t>
   </si>
   <si>
     <t>4 XII-C</t>
@@ -61,6 +70,9 @@
   </si>
   <si>
     <t>VICE PRINCIPAL</t>
+  </si>
+  <si>
+    <t>MR B BALI</t>
   </si>
   <si>
     <t>PGT(HIS)</t>
@@ -88,8 +100,8 @@
  6 IX-C</t>
   </si>
   <si>
-    <t>5 XII-C HIST
- 3 XI-C HIST
+    <t>1,3 XI-C HIST 
+5 XII-C HIST 
  6 IX-C</t>
   </si>
   <si>
@@ -110,7 +122,7 @@
 3-6 XI-A,B</t>
   </si>
   <si>
-    <t>2 XI-B</t>
+    <t>5 XI-B</t>
   </si>
   <si>
     <t>1,2,6 XII-A
@@ -136,11 +148,12 @@
 3-5 XI-B</t>
   </si>
   <si>
-    <t>1,2 XI-B PR</t>
-  </si>
-  <si>
-    <t>1 XI-B
-2-6 VIII-A</t>
+    <t>1,2 XI-B PR
+6 VIII-A</t>
+  </si>
+  <si>
+    <t>2-5 VIII A
+6 XI-B</t>
   </si>
   <si>
     <t>1 VIII-A 
@@ -159,14 +172,14 @@
     <t>MS MEENA S NAIR</t>
   </si>
   <si>
-    <t>3,4 XI-A PR
- 6 CCA</t>
-  </si>
-  <si>
     <t>1-5 XI-A
  6 CCA</t>
   </si>
   <si>
+    <t>3,4 XI-A  PR
+ 6 CCA</t>
+  </si>
+  <si>
     <t>1-5 XII-B</t>
   </si>
   <si>
@@ -183,60 +196,78 @@
     <t>1 VII-B</t>
   </si>
   <si>
-    <t>MR R N SINGH</t>
+    <t>MR TC AGARWAL</t>
   </si>
   <si>
     <t>PGT(PHY)</t>
   </si>
   <si>
-    <t>3-4 XI-A PR
+    <t>3,4 XI-A
+5 VII-C
  6 CCA</t>
   </si>
   <si>
-    <t>1-6 VIII-B</t>
-  </si>
-  <si>
-    <t>1-5 XII-B
- 6 XII-B-GS</t>
-  </si>
-  <si>
-    <t>1-4 XII-B PR
+    <t>1,2,5 XI-A
+3-4 XI-A PR
+ 6 CCA</t>
+  </si>
+  <si>
+    <t>1-2 XI-B PR
+3,4 XI-A</t>
+  </si>
+  <si>
+    <t>1-2 XI-B PR 
+4 VII C
+6 XII-B GS</t>
+  </si>
+  <si>
+    <t>1-4 XI-B
  5-6 XI-A PR</t>
-  </si>
-  <si>
-    <t>1-2 XI-A</t>
-  </si>
-  <si>
-    <t>MR TC AGARWAL</t>
-  </si>
-  <si>
-    <t>1-5 VII-A
- 6 CCA</t>
-  </si>
-  <si>
-    <t>1-2 XI-B PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2 XI-B PR
- </t>
-  </si>
-  <si>
-    <t>3-6 XI-B</t>
   </si>
   <si>
     <t>1 XI-B GS
 2 XI-B
- 6 VII-A</t>
+ 5-6 XI-A PR</t>
+  </si>
+  <si>
+    <t>1,2,5,6 VII-C
+3-4 XI-B PR</t>
+  </si>
+  <si>
+    <t>3-4 XI-B PR</t>
+  </si>
+  <si>
+    <t>MR PANKAJ MATHUR</t>
+  </si>
+  <si>
+    <t>1-5 VII-A
+ 6 CCA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 1-5 XII-B
+ </t>
+  </si>
+  <si>
+    <t>
+1-4 XII-B PR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1-4 XII-B PR
+6 VII-A </t>
   </si>
   <si>
     <t>1-2,5-6 XII-A PR
- 3-4 XI-B PR</t>
+</t>
   </si>
   <si>
     <t>MR R B MEENA</t>
   </si>
   <si>
-    <t>PGT(HND)</t>
+    <t>PGT(HIND)</t>
   </si>
   <si>
     <t>1 IX-C
@@ -246,11 +277,14 @@
     <t>1-6 IX-C</t>
   </si>
   <si>
+    <t>3-6 XI-B</t>
+  </si>
+  <si>
     <t>1,2,4-6 XI-C
 3 XI-B</t>
   </si>
   <si>
-    <t>1 XI-C 
+    <t>
 2 XI-B GS
  3-4 XII-B GS
  6 XII-B VPM</t>
@@ -262,11 +296,11 @@
     <t>PGT(CS)</t>
   </si>
   <si>
-    <t>4,5 VII-B (M)
+    <t>5 VII-B (M)
 6 CCA</t>
   </si>
   <si>
-    <t>1-5 XI-A
+    <t>1,2,5 XI-A
  6 XI-A GS</t>
   </si>
   <si>
@@ -277,7 +311,8 @@
     <t>1,2,5,6 XI-A PR</t>
   </si>
   <si>
-    <t>3-6 XII-A PR</t>
+    <t>1,2 XI-A
+3-6 XII-A PR</t>
   </si>
   <si>
     <t>1 XI-B COMP
@@ -346,6 +381,7 @@
   </si>
   <si>
     <t>1-3 XII-C
+4 VII-B (M)
  6 CCA</t>
   </si>
   <si>
@@ -353,6 +389,9 @@
   </si>
   <si>
     <t>1-6 VIII-C</t>
+  </si>
+  <si>
+    <t>1-6 VIII-B</t>
   </si>
   <si>
     <t xml:space="preserve"> 1 XII-C
@@ -374,10 +413,8 @@
 6 CCA</t>
   </si>
   <si>
-    <t>1 VIII-A</t>
-  </si>
-  <si>
-    <t>2 XI-C GS</t>
+    <t>2 XI-C GS
+6 VIII-A</t>
   </si>
   <si>
     <t>3-5 XII-C
@@ -414,7 +451,7 @@
     <t>2-6 VII-C</t>
   </si>
   <si>
-    <t>1 VII-C</t>
+    <t>3 VII-C</t>
   </si>
   <si>
     <t>1 IX-C
@@ -436,7 +473,7 @@
     <t>6  VI-C</t>
   </si>
   <si>
-    <t>1-5 VIII-C</t>
+    <t>1-3,5,6 VIII-C</t>
   </si>
   <si>
     <t>1-5 VI-B</t>
@@ -484,7 +521,7 @@
     <t>MR N D PARMAR</t>
   </si>
   <si>
-    <t>TGT(HND)</t>
+    <t>TGT(HIND)</t>
   </si>
   <si>
     <t>1-4 VIII-B
@@ -520,10 +557,14 @@
   </si>
   <si>
     <t>1 IX-B
+3 VIII-A
 6 CCA</t>
   </si>
   <si>
     <t>1-6 IX-B</t>
+  </si>
+  <si>
+    <t>1-3,5,6 VII-C</t>
   </si>
   <si>
     <t>1-6 X-A</t>
@@ -533,6 +574,9 @@
 6  X-A</t>
   </si>
   <si>
+    <t xml:space="preserve">4 VII-C </t>
+  </si>
+  <si>
     <t>MS NIRMALA</t>
   </si>
   <si>
@@ -551,8 +595,8 @@
   </si>
   <si>
     <t>1-4 VII-A
- 5 VI-A
- 6 X-B</t>
+5 VI-A
+6 X-B</t>
   </si>
   <si>
     <t>1-6 VII-B</t>
@@ -580,7 +624,7 @@
   </si>
   <si>
     <t>1-3 VI-B
- 6  VIII-C</t>
+ 4 VIII-C</t>
   </si>
   <si>
     <t>1-6 X-A,B,C</t>
@@ -590,7 +634,7 @@
   </si>
   <si>
     <t>1-3 VIII-A
- 4-6 VII-A</t>
+4-6 VII-A</t>
   </si>
   <si>
     <t>1-3 VIII-B
@@ -645,8 +689,7 @@
   </si>
   <si>
     <t>1 VII-C
-2-6 VIII-A
-</t>
+2-6 VIII-A</t>
   </si>
   <si>
     <t xml:space="preserve"> 3 IX-A
@@ -654,7 +697,8 @@
 </t>
   </si>
   <si>
-    <t>6 IX-A</t>
+    <t>6 IX-A
+</t>
   </si>
   <si>
     <t>MS SHALINI</t>
@@ -696,19 +740,18 @@
   </si>
   <si>
     <t>1-5 IX-C
- 6  VI-A</t>
+6 VI-A</t>
   </si>
   <si>
     <t>1 IX-C
  2 X-C
- 3-6 VI-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 X-C
- 3 VI-A
+3-6 VI-A</t>
+  </si>
+  <si>
+    <t>2 X-C
+3 VI-A 
 5 IX-C 
-6 VI-C
-  </t>
+6 VI-C</t>
   </si>
   <si>
     <t>MS GARIMA VIJ</t>
@@ -718,9 +761,6 @@
 6 CCA</t>
   </si>
   <si>
-    <t>2 VII-C</t>
-  </si>
-  <si>
     <t>1-4,6 IX-B</t>
   </si>
   <si>
@@ -728,8 +768,7 @@
  6 IX-A</t>
   </si>
   <si>
-    <t xml:space="preserve">1 VIII-C
-2-6 VII-C </t>
+    <t>1 VIII-C</t>
   </si>
   <si>
     <t>4,6 IX-B
@@ -757,7 +796,7 @@
     <t>1-6 VI-B</t>
   </si>
   <si>
-    <t>MS REKHA DEVI</t>
+    <t>MS SANJUBALA SINGH</t>
   </si>
   <si>
     <t>1-5 VII-A
@@ -788,6 +827,10 @@
   </si>
   <si>
     <t>LIBRARIAN</t>
+  </si>
+  <si>
+    <t>4 VII-C
+6 CCA</t>
   </si>
   <si>
     <t>1 VI-C
@@ -800,7 +843,6 @@
     <t>1 VIII-C
 2 VI-B GAME
  3 VI-C GAME
-4 VII-C GAME
  5 VI-B
  6 VII-A</t>
   </si>
@@ -818,8 +860,7 @@
     <t>1 X-B
  3 XII-A
  4 IX-A
- 5 X-B
-</t>
+ 5 X-B</t>
   </si>
   <si>
     <t>1 XI-B
@@ -837,14 +878,13 @@
  6 XII-C</t>
   </si>
   <si>
-    <t>WET</t>
+    <t>MR B V PANCHAL</t>
   </si>
   <si>
     <t>WET/SUPW</t>
   </si>
   <si>
-    <t>5 VII-C
- 6 CCA</t>
+    <t xml:space="preserve"> 6 CCA</t>
   </si>
   <si>
     <t>1-2 VIII-A
@@ -855,7 +895,7 @@
   <si>
     <t>1 VI-B
  2 VIII-C
- 3 VII-C
+ 3,4 VII-C
  5 VI-C
  6 VII-B</t>
   </si>
@@ -866,15 +906,16 @@
  6 VI-B</t>
   </si>
   <si>
-    <t>1,3 XI-C
+    <t>
 2 VIII-B
+3 XI-C
  4 XI-A</t>
   </si>
   <si>
     <t>1 IX-B
  2 IX-A
- 5 XII-A
- 6 XI-B</t>
+ 5 XII-A 
+6 XI-B</t>
   </si>
   <si>
     <t>1 X-C
@@ -913,7 +954,7 @@
     <t>1-2 VII-A
 3-4 VI-A 
 5 IX-B
- 6 VII-A</t>
+6 VII-A</t>
   </si>
   <si>
     <t>1,5 X-C
@@ -925,7 +966,6 @@
   <si>
     <t>1 X-A
  2 XI-B
- 3 IX-A
  4 IX-B
  5-6 XI-A</t>
   </si>
@@ -938,10 +978,14 @@
  6 VIII-C</t>
   </si>
   <si>
-    <t>GAMES COACH</t>
+    <t>GAMES COACH 
+MR MANISH PATEL</t>
   </si>
   <si>
     <t>PET1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             6 CCA</t>
   </si>
   <si>
     <t>1 VI-A
@@ -958,10 +1002,11 @@
  6 VIII-C</t>
   </si>
   <si>
-    <t>2 IV-C
+    <t>1 VIII-A
+2 IV-C
 3,4 IV-A
  5 IV-B
-6 VIII-A</t>
+</t>
   </si>
   <si>
     <t>1 IV-C
@@ -989,17 +1034,13 @@
  2 IX-C
  3 VIII-C
  4 X-C
- 5 VII-A</t>
+5 VII-A</t>
   </si>
   <si>
     <t>MR PRAVEENA MAHICHA</t>
   </si>
   <si>
     <t>ART</t>
-  </si>
-  <si>
-    <t>4 VII-C
-6 CCA</t>
   </si>
   <si>
     <t>1 VII-C
@@ -1008,7 +1049,7 @@
 6 CCA</t>
   </si>
   <si>
-    <t>5 VII-C
+    <t>2,5 VII-C
  6 VI-B</t>
   </si>
   <si>
@@ -1043,7 +1084,8 @@
  6 VII-A</t>
   </si>
   <si>
-    <t>COMPUTER INSTRUCTOR</t>
+    <t>COMPUTER INSTRUCTOR
+MR B I JHALA</t>
   </si>
   <si>
     <t>COMP</t>
@@ -1058,8 +1100,7 @@
 6 CCA</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3 VI-A MUSIC 
-4 VI-C MUSIC
+    <t>4 VI-C MUSIC
 6 VII-C MUSIC</t>
   </si>
   <si>
@@ -1068,13 +1109,12 @@
   </si>
   <si>
     <t>1,2 VII-A
- 3,4 VIII-B
+3,4 VIII-B
 5,6 XI-C</t>
   </si>
   <si>
-    <t xml:space="preserve">3,4 X-C
- 5 XI-B
- </t>
+    <t>3,4 X-C
+5 XI-B</t>
   </si>
   <si>
     <t xml:space="preserve"> 2 X-A
@@ -1090,7 +1130,8 @@
  6 X-B</t>
   </si>
   <si>
-    <t>COMPUTER INSTRUCTOR PRIMARY</t>
+    <t>COMPUTER INSTRUCTOR 
+MR VIVEK PARMAR</t>
   </si>
   <si>
     <t>1 VII-B
@@ -1103,8 +1144,7 @@
  6 VI-C</t>
   </si>
   <si>
-    <t>1 VI-A
- 2 VI-A</t>
+    <t>1,2 VI-A</t>
   </si>
   <si>
     <t>1 VI-B
@@ -1137,36 +1177,12 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1206,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1226,58 +1242,25 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1297,12 +1280,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="39.43"/>
-    <col customWidth="1" min="3" max="3" width="17.71"/>
-    <col customWidth="1" min="9" max="9" width="14.86"/>
-    <col customWidth="1" min="10" max="10" width="17.0"/>
-    <col customWidth="1" min="11" max="11" width="20.43"/>
+    <col customWidth="1" min="1" max="1" width="20.57"/>
+    <col customWidth="1" min="2" max="2" width="27.57"/>
+    <col customWidth="1" min="3" max="23" width="22.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -1354,19 +1334,19 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="33.75" customHeight="1">
@@ -1374,16 +1354,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1397,32 +1377,32 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="33.75" customHeight="1">
@@ -1430,32 +1410,32 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="1">
@@ -1463,34 +1443,34 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="J6" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="33.75" customHeight="1">
@@ -1498,34 +1478,34 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="1">
@@ -1533,67 +1513,67 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="33.75" customHeight="1">
@@ -1601,34 +1581,34 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="33.75" customHeight="1">
@@ -1636,34 +1616,34 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1">
@@ -1671,32 +1651,32 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="33.75" customHeight="1">
@@ -1704,34 +1684,34 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="33.75" customHeight="1">
@@ -1739,30 +1719,30 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" ht="33.75" customHeight="1">
@@ -1770,34 +1750,32 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="33.75" customHeight="1">
@@ -1805,34 +1783,34 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="D16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="E16" s="3" t="s">
         <v>110</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" ht="33.75" customHeight="1">
@@ -1840,34 +1818,34 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" ht="33.75" customHeight="1">
@@ -1875,32 +1853,32 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19" ht="33.75" customHeight="1">
@@ -1908,32 +1886,32 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="20" ht="33.75" customHeight="1">
@@ -1941,32 +1919,34 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" ht="33.75" customHeight="1">
@@ -1974,34 +1954,34 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" ht="33.75" customHeight="1">
@@ -2009,34 +1989,34 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" ht="33.75" customHeight="1">
@@ -2044,34 +2024,34 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>60</v>
+        <v>168</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" ht="33.75" customHeight="1">
@@ -2079,34 +2059,34 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>105</v>
+        <v>168</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>174</v>
+        <v>137</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" ht="33.75" customHeight="1">
@@ -2114,32 +2094,32 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>180</v>
+        <v>97</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" ht="57.0" customHeight="1">
@@ -2147,32 +2127,32 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>188</v>
+        <v>194</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="27" ht="33.75" customHeight="1">
@@ -2180,34 +2160,34 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" ht="33.75" customHeight="1">
@@ -2215,67 +2195,67 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" s="11"/>
+        <v>207</v>
+      </c>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" ht="33.75" customHeight="1">
       <c r="A29" s="3">
         <v>28.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" ht="33.75" customHeight="1">
@@ -2283,34 +2263,34 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>211</v>
+        <v>216</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" ht="33.75" customHeight="1">
@@ -2318,34 +2298,34 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>227</v>
+        <v>233</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="32" ht="33.75" customHeight="1">
@@ -2353,32 +2333,32 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="7" t="s">
-        <v>233</v>
+      <c r="I32" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>235</v>
+        <v>241</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="33" ht="33.75" customHeight="1">
@@ -2386,34 +2366,34 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>244</v>
+        <v>251</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="34" ht="33.75" customHeight="1">
@@ -2421,34 +2401,34 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>254</v>
+        <v>260</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="35" ht="33.75" customHeight="1">
@@ -2456,34 +2436,34 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J35" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="D35" s="3" t="s">
         <v>264</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="36" ht="33.75" customHeight="1">
@@ -2491,28 +2471,28 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>5</v>
+        <v>263</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>269</v>
+        <v>275</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="37" ht="33.75" customHeight="1"/>
